--- a/Suveys/es1_User_Surveys_n_results.xlsx
+++ b/Suveys/es1_User_Surveys_n_results.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="220" windowWidth="25360" windowHeight="15280" tabRatio="704" activeTab="2"/>
+    <workbookView xWindow="25900" yWindow="1660" windowWidth="24880" windowHeight="13680" tabRatio="704" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Users_Survey" sheetId="21" r:id="rId1"/>
     <sheet name="Model_User_View" sheetId="20" r:id="rId2"/>
-    <sheet name="Providers_Survey" sheetId="19" r:id="rId3"/>
-    <sheet name="Model_Provider_View" sheetId="12" r:id="rId4"/>
+    <sheet name="RESULTS" sheetId="27" r:id="rId3"/>
+    <sheet name="Providers_Survey" sheetId="19" r:id="rId4"/>
+    <sheet name="Model_Provider_View" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="110">
   <si>
     <t>ACCESSIBILITY</t>
   </si>
@@ -120,9 +121,6 @@
     <t>Did you saved time and effort using the e-service?</t>
   </si>
   <si>
-    <t>Do you trust on the e-service to use it again?</t>
-  </si>
-  <si>
     <t>Was it easy to learn the functionality?</t>
   </si>
   <si>
@@ -150,15 +148,9 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Do you trust on the service for accomplishing your goals?</t>
-  </si>
-  <si>
     <t>Fault tolerance</t>
   </si>
   <si>
-    <t>Was the graphic interface clear and comprehensive?</t>
-  </si>
-  <si>
     <t>Did you authenticate yourself in order to use the service?</t>
   </si>
   <si>
@@ -234,9 +226,6 @@
     <t>Component</t>
   </si>
   <si>
-    <t>When you had a problem, did you get faster or proper solution from the provider?</t>
-  </si>
-  <si>
     <t>Did you face any response problems when you were using the service?</t>
   </si>
   <si>
@@ -276,9 +265,6 @@
     <t>Was the service available when you needed it?</t>
   </si>
   <si>
-    <t>Was the service interrupted when you were using it?</t>
-  </si>
-  <si>
     <t>Is the service able to properly deal with external organizations?</t>
   </si>
   <si>
@@ -307,6 +293,66 @@
   </si>
   <si>
     <t>Does service provider take responsibility for any problems caused by serivce interactions with external third parties?</t>
+  </si>
+  <si>
+    <t>Was the service interrupted when you were using it (not because Internet connection)?</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K0</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>Were you informed on how to contact provider in case needing help?</t>
+  </si>
+  <si>
+    <t>Do you consider the service functionality as reliable?</t>
+  </si>
+  <si>
+    <t>Do you consider the e-service as useful?</t>
+  </si>
+  <si>
+    <t>Was the graphic interface comprehensive?</t>
+  </si>
+  <si>
+    <t>Was the service provider responsive?</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>SURVEY</t>
+  </si>
+  <si>
+    <t>QUALITY RESULT</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>ES1</t>
+  </si>
+  <si>
+    <t>ES2</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>PROVIDER</t>
+  </si>
+  <si>
+    <t>OPTIMAL</t>
   </si>
 </sst>
 </file>
@@ -860,7 +906,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="392">
+  <cellStyleXfs count="432">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1253,8 +1299,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1268,6 +1354,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1370,6 +1457,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1634,8 +1730,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="392">
+  <cellStyles count="432">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1831,6 +1939,26 @@
     <cellStyle name="Followed Hyperlink" xfId="387" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="389" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="391" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="393" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="395" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="397" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="399" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="401" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="403" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="405" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="407" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="409" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="411" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="413" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="415" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="417" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="419" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="421" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="423" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="425" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="427" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="429" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="431" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2026,6 +2154,26 @@
     <cellStyle name="Hyperlink" xfId="386" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="388" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="390" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="394" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="396" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="398" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="400" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="402" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="408" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="410" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="430" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="359" builtinId="5"/>
   </cellStyles>
@@ -3017,10 +3165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3032,472 +3180,701 @@
     <col min="5" max="5" width="8.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.83203125" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="52"/>
+    <col min="9" max="9" width="1.33203125" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="4.83203125" customWidth="1"/>
+    <col min="13" max="13" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="104"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="104"/>
-      <c r="B2" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="104"/>
-    </row>
-    <row r="3" spans="1:7" ht="38" customHeight="1">
-      <c r="A3" s="104"/>
-      <c r="B3" s="10" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+    </row>
+    <row r="2" spans="1:14" ht="18" customHeight="1">
+      <c r="A2" s="108"/>
+      <c r="B2" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="108"/>
+    </row>
+    <row r="3" spans="1:14" ht="38" customHeight="1">
+      <c r="A3" s="108"/>
+      <c r="B3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="104"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="104"/>
-      <c r="B4" s="5">
+      <c r="D3" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="108"/>
+    </row>
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A4" s="108"/>
+      <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="11">
         <f t="shared" ref="E4:E6" si="0">IF(D4="YES",0.5,0)</f>
         <v>0.5</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="104"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="104"/>
-      <c r="B5" s="5">
+      <c r="G4" s="108"/>
+      <c r="H4" s="52"/>
+      <c r="J4" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A5" s="108"/>
+      <c r="B5" s="6">
         <f>B4+1</f>
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="10">
+        <v>79</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="11">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="104"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A6" s="104"/>
-      <c r="B6" s="5">
-        <f t="shared" ref="B6:B22" si="1">B5+1</f>
+      <c r="G5" s="108"/>
+      <c r="H5" s="52"/>
+      <c r="J5" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A6" s="108"/>
+      <c r="B6" s="6">
+        <f t="shared" ref="B6:B23" si="1">B5+1</f>
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="C6" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="11">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="104"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A7" s="104"/>
-      <c r="B7" s="5">
+      <c r="G6" s="108"/>
+      <c r="H6" s="143" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A7" s="108"/>
+      <c r="B7" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="C7" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="C7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="11">
         <f>IF(D7="YES",0.5,0)</f>
         <v>0.5</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="104"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="5">
+      <c r="G7" s="108"/>
+      <c r="H7" s="143"/>
+      <c r="J7" s="53"/>
+      <c r="L7" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7" s="53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A8" s="108"/>
+      <c r="B8" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="10">
+        <v>90</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="11">
         <f>IF(D8="NO",1,0)</f>
         <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="104"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A9" s="104"/>
-      <c r="B9" s="5">
+      <c r="G8" s="108"/>
+      <c r="H8" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A9" s="108"/>
+      <c r="B9" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="10">
+        <v>33</v>
+      </c>
+      <c r="D9" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="11">
         <f>IF(D9="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="104"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="5">
+      <c r="G9" s="108"/>
+      <c r="H9" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A10" s="108"/>
+      <c r="B10" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="10">
+        <v>32</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="11">
         <f>IF(D10="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="104"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A11" s="104"/>
-      <c r="B11" s="5">
+      <c r="G10" s="108"/>
+      <c r="H10" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="53"/>
+      <c r="L10" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A11" s="108"/>
+      <c r="B11" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="10">
+        <v>98</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="11">
         <f>IF(D11="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="104"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A12" s="104"/>
-      <c r="B12" s="5">
+      <c r="G11" s="108"/>
+      <c r="H11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="L11" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="N11" s="53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A12" s="108"/>
+      <c r="B12" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="10">
+        <v>67</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="11">
         <f>IF(D12="NO",1,0)</f>
         <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="104"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A13" s="104"/>
-      <c r="B13" s="5">
+        <v>41</v>
+      </c>
+      <c r="G12" s="108"/>
+      <c r="H12" s="52"/>
+      <c r="J12" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="L12" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A13" s="108"/>
+      <c r="B13" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="10">
-        <f>IF(D13="YES",1,0)</f>
-        <v>1</v>
+      <c r="C13" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="54">
+        <f>IF(D13="YES",0.5,0)</f>
+        <v>0.5</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="104"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A14" s="104"/>
-      <c r="B14" s="5">
+      <c r="G13" s="108"/>
+      <c r="H13" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="N13" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A14" s="108"/>
+      <c r="B14" s="53">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C14" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="10">
-        <f>IF(D14="YES",0.5,0)</f>
+      <c r="C14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="11">
+        <f>IF(D14="NO",0,0.5)</f>
         <v>0.5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="104"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A15" s="104"/>
-      <c r="B15" s="5">
+        <v>16</v>
+      </c>
+      <c r="G14" s="108"/>
+      <c r="H14" s="52"/>
+      <c r="J14" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="L14" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="N14" s="53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A15" s="108"/>
+      <c r="B15" s="53">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="10">
+      <c r="C15" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="11">
         <f>IF(D15="YES",0.5,0)</f>
         <v>0.5</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="104"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="104"/>
-      <c r="B16" s="5">
+      <c r="G15" s="108"/>
+      <c r="H15" s="52"/>
+      <c r="J15" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="N15" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A16" s="108"/>
+      <c r="B16" s="53">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="10">
-        <f>IF(D16="YES",1,0)</f>
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="11">
+        <f>IF(D16="YES",0.5,0)</f>
+        <v>0.5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="104"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A17" s="104"/>
-      <c r="B17" s="5">
+        <v>27</v>
+      </c>
+      <c r="G16" s="108"/>
+      <c r="H16" s="52"/>
+      <c r="J16" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="N16" s="53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A17" s="108"/>
+      <c r="B17" s="53">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="10">
+      <c r="D17" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="11">
         <f>IF(D17="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="104"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A18" s="104"/>
-      <c r="B18" s="5">
+        <v>25</v>
+      </c>
+      <c r="G17" s="108"/>
+      <c r="H17" s="52"/>
+      <c r="J17" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="L17" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A18" s="108"/>
+      <c r="B18" s="53">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="10">
+        <v>35</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="11">
         <f>IF(D18="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="104"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A19" s="104"/>
-      <c r="B19" s="5">
+        <v>26</v>
+      </c>
+      <c r="G18" s="108"/>
+      <c r="H18" s="52"/>
+      <c r="J18" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" s="53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A19" s="108"/>
+      <c r="B19" s="53">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="10">
-        <f>IF(D19="YES",1,0)</f>
+        <v>78</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="11">
+        <f>IF(D19="NO",1,0)</f>
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="104"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A20" s="104"/>
-      <c r="B20" s="5">
+        <v>18</v>
+      </c>
+      <c r="G19" s="108"/>
+      <c r="H19" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A20" s="108"/>
+      <c r="B20" s="53">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="10">
+        <v>42</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="11">
         <f>IF(D20="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="104"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="104"/>
-      <c r="B21" s="5">
+        <v>19</v>
+      </c>
+      <c r="G20" s="108"/>
+      <c r="H20" s="52"/>
+      <c r="J20" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="N20" s="53" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="108"/>
+      <c r="B21" s="53">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="10">
-        <f>IF(D21="NO",1,0)</f>
+        <v>37</v>
+      </c>
+      <c r="D21" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="11">
+        <f>IF(D21="YES",1,0)</f>
         <v>1</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" s="104"/>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1">
-      <c r="A22" s="104"/>
-      <c r="B22" s="5">
+        <v>20</v>
+      </c>
+      <c r="G21" s="108"/>
+      <c r="H21" s="52"/>
+      <c r="J21" s="53"/>
+      <c r="L21" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="N21" s="53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A22" s="108"/>
+      <c r="B22" s="53">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="10">
+      <c r="E22" s="11">
         <f>IF(D22="NO",1,0)</f>
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="108"/>
+      <c r="H22" s="52"/>
+      <c r="J22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="4" customFormat="1" ht="18" customHeight="1">
+      <c r="A23" s="108"/>
+      <c r="B23" s="53">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="11">
+        <f>IF(D23="NO",1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G22" s="104"/>
-    </row>
-    <row r="23" spans="1:7" ht="5" customHeight="1">
-      <c r="A23" s="104"/>
-      <c r="G23" s="104"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="104"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="52"/>
+      <c r="J23" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="L23" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="N23" s="53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="5" customHeight="1">
+      <c r="A24" s="108"/>
+      <c r="G24" s="108"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="108"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="108"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="G2:G24"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="G2:G25"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A2:A24"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="E4:E11 E13:E18 E19:E22" emptyCellReference="1"/>
-    <ignoredError sqref="E12" formula="1"/>
+    <ignoredError sqref="E4:E11 E15:E18 E20:E23 E13" emptyCellReference="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3509,10 +3886,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P28"/>
+  <dimension ref="B1:P29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3526,698 +3903,698 @@
     <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" customWidth="1"/>
     <col min="9" max="9" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="9" customWidth="1"/>
     <col min="11" max="11" width="3.83203125" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.83203125" customWidth="1"/>
-    <col min="16" max="16" width="3" customWidth="1"/>
-    <col min="17" max="17" width="2.6640625" customWidth="1"/>
+    <col min="16" max="16" width="2.33203125" customWidth="1"/>
+    <col min="17" max="17" width="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="5" customHeight="1"/>
-    <row r="2" spans="2:16" ht="15" customHeight="1" thickBot="1">
-      <c r="B2" s="19"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="22"/>
+    <row r="2" spans="2:16" ht="12" customHeight="1" thickBot="1">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="23"/>
     </row>
     <row r="3" spans="2:16" ht="22" customHeight="1">
-      <c r="B3" s="23"/>
-      <c r="C3" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="99">
+      <c r="B3" s="24"/>
+      <c r="C3" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="102"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="103">
         <f>E10/4</f>
         <v>5</v>
       </c>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99">
+      <c r="H3" s="103"/>
+      <c r="I3" s="103">
         <f>E14/2</f>
         <v>3</v>
       </c>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99">
+      <c r="J3" s="103"/>
+      <c r="K3" s="103">
         <f>E17/4</f>
         <v>2</v>
       </c>
-      <c r="L3" s="99"/>
-      <c r="M3" s="100">
+      <c r="L3" s="103"/>
+      <c r="M3" s="104">
         <f>E22/3</f>
         <v>3</v>
       </c>
-      <c r="N3" s="101"/>
-      <c r="O3" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="P3" s="24"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="P3" s="25"/>
     </row>
     <row r="4" spans="2:16" ht="22" customHeight="1">
-      <c r="B4" s="23"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="96"/>
-      <c r="G4" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="100"/>
+      <c r="G4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61" t="s">
+      <c r="J4" s="65"/>
+      <c r="K4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="102" t="s">
+      <c r="L4" s="65"/>
+      <c r="M4" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="N4" s="103"/>
-      <c r="O4" s="94"/>
-      <c r="P4" s="24"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="98"/>
+      <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:16" ht="20" customHeight="1">
-      <c r="B5" s="23"/>
-      <c r="C5" s="62">
+      <c r="B5" s="24"/>
+      <c r="C5" s="66">
         <f>(G5+K5+G6+K6+M7+I5)/O5</f>
         <v>1</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="59">
+      <c r="F5" s="89"/>
+      <c r="G5" s="63">
         <f>G3</f>
         <v>5</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="86">
+      <c r="H5" s="63"/>
+      <c r="I5" s="90">
         <f>I3</f>
         <v>3</v>
       </c>
-      <c r="J5" s="86"/>
-      <c r="K5" s="59">
+      <c r="J5" s="90"/>
+      <c r="K5" s="63">
         <f>K3</f>
         <v>2</v>
       </c>
-      <c r="L5" s="59"/>
-      <c r="M5" s="78">
-        <v>0</v>
-      </c>
-      <c r="N5" s="79"/>
-      <c r="O5" s="82">
-        <f>(G5+K5+G6+K6+M7+I5)</f>
+      <c r="L5" s="63"/>
+      <c r="M5" s="82">
+        <v>0</v>
+      </c>
+      <c r="N5" s="83"/>
+      <c r="O5" s="86">
         <v>20</v>
       </c>
-      <c r="P5" s="24"/>
+      <c r="P5" s="25"/>
     </row>
     <row r="6" spans="2:16" ht="20" customHeight="1">
-      <c r="B6" s="23"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="84" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="86">
+      <c r="F6" s="89"/>
+      <c r="G6" s="90">
         <f>G3</f>
         <v>5</v>
       </c>
-      <c r="H6" s="86" t="str">
+      <c r="H6" s="90" t="str">
         <f>$D$9</f>
         <v>Dimension</v>
       </c>
-      <c r="I6" s="87">
-        <v>0</v>
-      </c>
-      <c r="J6" s="87"/>
-      <c r="K6" s="59">
+      <c r="I6" s="91">
+        <v>0</v>
+      </c>
+      <c r="J6" s="91"/>
+      <c r="K6" s="63">
         <f>K3</f>
         <v>2</v>
       </c>
-      <c r="L6" s="59"/>
-      <c r="M6" s="88">
-        <v>0</v>
-      </c>
-      <c r="N6" s="89"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="24"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="92">
+        <v>0</v>
+      </c>
+      <c r="N6" s="93"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="25"/>
     </row>
     <row r="7" spans="2:16" ht="20" customHeight="1" thickBot="1">
-      <c r="B7" s="23"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="84" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="85"/>
-      <c r="G7" s="87">
-        <v>0</v>
-      </c>
-      <c r="H7" s="87">
-        <v>0</v>
-      </c>
-      <c r="I7" s="87">
-        <v>0</v>
-      </c>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87">
-        <v>0</v>
-      </c>
-      <c r="L7" s="87"/>
-      <c r="M7" s="80">
+      <c r="F7" s="89"/>
+      <c r="G7" s="91">
+        <v>0</v>
+      </c>
+      <c r="H7" s="91">
+        <v>0</v>
+      </c>
+      <c r="I7" s="91">
+        <v>0</v>
+      </c>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91">
+        <v>0</v>
+      </c>
+      <c r="L7" s="91"/>
+      <c r="M7" s="84">
         <f>M3</f>
         <v>3</v>
       </c>
-      <c r="N7" s="81"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="24"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="25"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="23"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="25"/>
     </row>
     <row r="9" spans="2:16" ht="20" customHeight="1">
-      <c r="B9" s="23"/>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="24"/>
+      <c r="G9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="25"/>
     </row>
     <row r="10" spans="2:16" ht="20" customHeight="1">
-      <c r="B10" s="23"/>
-      <c r="C10" s="56">
+      <c r="B10" s="24"/>
+      <c r="C10" s="60">
         <v>20</v>
       </c>
-      <c r="D10" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="56">
+      <c r="D10" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="60">
         <f>G10+G11+G12+I11+I12</f>
         <v>20</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="46">
         <f>Users_Survey!E4+Users_Survey!E5</f>
         <v>1</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="24"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="25"/>
     </row>
     <row r="11" spans="2:16" ht="36" customHeight="1">
-      <c r="B11" s="23"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="59" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="46">
         <f>Users_Survey!E6+Users_Survey!E7</f>
         <v>1</v>
       </c>
-      <c r="H11" s="59" t="s">
+      <c r="H11" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="46">
         <f>Users_Survey!E8</f>
         <v>1</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="24"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="25"/>
     </row>
     <row r="12" spans="2:16" ht="25" customHeight="1">
-      <c r="B12" s="23"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="46">
+      <c r="B12" s="24"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="47">
         <f>I11+I12</f>
         <v>9</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="46">
+      <c r="H12" s="63"/>
+      <c r="I12" s="47">
         <f>G14+G15+G17+G18+G19</f>
         <v>8</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="24"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="25"/>
     </row>
     <row r="13" spans="2:16" ht="10" customHeight="1">
-      <c r="B13" s="23"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="24"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="25"/>
     </row>
     <row r="14" spans="2:16" ht="20" customHeight="1">
-      <c r="B14" s="23"/>
-      <c r="C14" s="56">
+      <c r="B14" s="24"/>
+      <c r="C14" s="60">
         <v>6</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="60">
         <f>G14+G15+I14+I15+K15</f>
         <v>6</v>
       </c>
-      <c r="F14" s="59" t="s">
+      <c r="F14" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="46">
         <f>Users_Survey!E9</f>
         <v>1</v>
       </c>
-      <c r="H14" s="59" t="s">
+      <c r="H14" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="46">
         <f>Users_Survey!E10</f>
         <v>1</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="24"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="25"/>
     </row>
     <row r="15" spans="2:16" ht="34" customHeight="1">
-      <c r="B15" s="23"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="46">
+      <c r="B15" s="24"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="47">
         <f>I14+I15</f>
         <v>2</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="46">
+      <c r="H15" s="63"/>
+      <c r="I15" s="47">
         <f>K15</f>
         <v>1</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="45">
+      <c r="K15" s="46">
         <f>Users_Survey!E11</f>
         <v>1</v>
       </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="24"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="25"/>
     </row>
     <row r="16" spans="2:16" ht="10" customHeight="1">
-      <c r="B16" s="23"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="25"/>
     </row>
     <row r="17" spans="2:16" ht="20" customHeight="1">
-      <c r="B17" s="23"/>
-      <c r="C17" s="56">
+      <c r="B17" s="24"/>
+      <c r="C17" s="60">
         <v>8</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="60">
         <f>G17+G18+G19+I19+M19+M20</f>
         <v>8</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="45">
+      <c r="G17" s="46">
         <f>Users_Survey!E12</f>
         <v>1</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="24"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="25"/>
     </row>
     <row r="18" spans="2:16" ht="20" customHeight="1">
-      <c r="B18" s="23"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="67" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="45">
-        <f>Users_Survey!E13</f>
+      <c r="G18" s="46">
+        <f>Users_Survey!E13+Users_Survey!E14</f>
         <v>1</v>
       </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="24"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="25"/>
     </row>
     <row r="19" spans="2:16" ht="20" customHeight="1">
-      <c r="B19" s="23"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="73">
+      <c r="B19" s="24"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="77">
         <f>I19+M19+M20</f>
         <v>3</v>
       </c>
-      <c r="H19" s="75" t="s">
+      <c r="H19" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="54">
-        <f>Users_Survey!E14+Users_Survey!E15</f>
+      <c r="I19" s="58">
+        <f>Users_Survey!E15+Users_Survey!E16</f>
         <v>1</v>
       </c>
-      <c r="J19" s="77" t="s">
+      <c r="J19" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="59" t="s">
+      <c r="K19" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="59"/>
-      <c r="M19" s="45">
-        <f>Users_Survey!E16</f>
-        <v>1</v>
-      </c>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="24"/>
-    </row>
-    <row r="20" spans="2:16" ht="20" customHeight="1">
-      <c r="B20" s="23"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="59"/>
-      <c r="M20" s="45">
+      <c r="L19" s="63"/>
+      <c r="M19" s="46">
         <f>Users_Survey!E17</f>
         <v>1</v>
       </c>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="24"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="25"/>
+    </row>
+    <row r="20" spans="2:16" ht="20" customHeight="1">
+      <c r="B20" s="24"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="63"/>
+      <c r="M20" s="46">
+        <f>Users_Survey!E18</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="25"/>
     </row>
     <row r="21" spans="2:16" ht="10" customHeight="1">
-      <c r="B21" s="23"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="25"/>
     </row>
     <row r="22" spans="2:16" ht="20" customHeight="1">
-      <c r="B22" s="23"/>
-      <c r="C22" s="56">
+      <c r="B22" s="24"/>
+      <c r="C22" s="60">
         <v>9</v>
       </c>
-      <c r="D22" s="60" t="s">
+      <c r="D22" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="56">
+      <c r="E22" s="60">
         <f>G23+G22+I22+I23+I24+I25</f>
         <v>9</v>
       </c>
-      <c r="F22" s="67" t="s">
+      <c r="F22" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="45">
-        <f>Users_Survey!E18</f>
-        <v>1</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="45">
+      <c r="G22" s="46">
         <f>Users_Survey!E19</f>
         <v>1</v>
       </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="24"/>
+      <c r="H22" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="46">
+        <f>Users_Survey!E20</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="27"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="25"/>
     </row>
     <row r="23" spans="2:16" ht="20" customHeight="1">
-      <c r="B23" s="23"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="70">
+      <c r="B23" s="24"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="74">
         <f>I22+I23+I24+I25</f>
         <v>4</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="45">
-        <f>Users_Survey!E20</f>
-        <v>1</v>
-      </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="24"/>
-    </row>
-    <row r="24" spans="2:16" ht="20" customHeight="1">
-      <c r="B24" s="23"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="45">
+      <c r="I23" s="46">
         <f>Users_Survey!E21</f>
         <v>1</v>
       </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="24"/>
-    </row>
-    <row r="25" spans="2:16" ht="20" customHeight="1">
-      <c r="B25" s="23"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="45">
+      <c r="J23" s="27"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="25"/>
+    </row>
+    <row r="24" spans="2:16" ht="20" customHeight="1">
+      <c r="B24" s="24"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="46">
         <f>Users_Survey!E22</f>
         <v>1</v>
       </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="24"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="25"/>
+    </row>
+    <row r="25" spans="2:16" ht="20" customHeight="1">
+      <c r="B25" s="24"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="46">
+        <f>Users_Survey!E23</f>
+        <v>1</v>
+      </c>
+      <c r="J25" s="27"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="25"/>
     </row>
     <row r="26" spans="2:16" ht="16" thickBot="1">
-      <c r="B26" s="23"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="25"/>
     </row>
     <row r="27" spans="2:16" ht="24" customHeight="1" thickBot="1">
-      <c r="B27" s="23"/>
-      <c r="C27" s="17">
+      <c r="B27" s="24"/>
+      <c r="C27" s="18">
         <v>8</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="52">
+      <c r="D27" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="56">
         <f>G10+G17+M7+G22+I24+I25</f>
         <v>8</v>
       </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="24"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="25"/>
     </row>
     <row r="28" spans="2:16">
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="31"/>
-    </row>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="32"/>
+    </row>
+    <row r="29" spans="2:16" ht="5" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
     <mergeCell ref="O3:O4"/>
@@ -4422,10 +4799,414 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>63</v>
+      </c>
+      <c r="E5">
+        <f>E4+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <f t="shared" ref="A6:A37" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E37" si="1">E5+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D4" sqref="D4:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4439,588 +5220,616 @@
     <col min="7" max="7" width="3.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="104"/>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-    </row>
-    <row r="2" spans="1:7" ht="24" customHeight="1">
-      <c r="A2" s="104"/>
-      <c r="B2" s="138" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="104"/>
-    </row>
-    <row r="3" spans="1:7" ht="30">
-      <c r="A3" s="104"/>
-      <c r="B3" s="15" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+    </row>
+    <row r="2" spans="1:9" ht="24" customHeight="1">
+      <c r="A2" s="108"/>
+      <c r="B2" s="142" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="108"/>
+    </row>
+    <row r="3" spans="1:9" ht="30">
+      <c r="A3" s="108"/>
+      <c r="B3" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="104"/>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A4" s="104"/>
-      <c r="B4" s="5">
+      <c r="D3" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="108"/>
+      <c r="I3" s="144" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A4" s="108"/>
+      <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="10">
+        <v>87</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="11">
         <f>IF(D4="YES",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="104"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A5" s="104"/>
-      <c r="B5" s="5">
+      <c r="G4" s="108"/>
+      <c r="I4" s="145" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A5" s="108"/>
+      <c r="B5" s="6">
         <f>B4+1</f>
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="10">
+        <v>45</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="11">
         <f>IF(D5="YES",0.25,0)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="104"/>
-    </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A6" s="104"/>
-      <c r="B6" s="5">
+      <c r="G5" s="108"/>
+      <c r="I5" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A6" s="108"/>
+      <c r="B6" s="6">
         <f t="shared" ref="B6:B28" si="0">B5+1</f>
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="10">
+        <v>44</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="11">
         <f t="shared" ref="E6:E8" si="1">IF(D6="YES",0.25,0)</f>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="104"/>
-    </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A7" s="104"/>
-      <c r="B7" s="5">
+      <c r="G6" s="108"/>
+      <c r="I6" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A7" s="108"/>
+      <c r="B7" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="10">
+        <v>43</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="11">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="104"/>
-    </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A8" s="104"/>
-      <c r="B8" s="5">
+      <c r="G7" s="108"/>
+      <c r="I7" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A8" s="108"/>
+      <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="10">
+        <v>80</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="11">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="104"/>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A9" s="104"/>
-      <c r="B9" s="5">
+      <c r="G8" s="108"/>
+      <c r="I8" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A9" s="108"/>
+      <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="10">
+        <v>88</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="11">
         <f>IF(D9="YES",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="104"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="5">
+      <c r="G9" s="108"/>
+      <c r="I9" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A10" s="108"/>
+      <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="10">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="11">
         <f>IF(D10="YES",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="104"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A11" s="104"/>
-      <c r="B11" s="5">
+      <c r="G10" s="108"/>
+      <c r="I10" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A11" s="108"/>
+      <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="10">
+        <v>51</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="11">
         <f>IF(D11="YES",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="104"/>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A12" s="104"/>
-      <c r="B12" s="5">
+      <c r="G11" s="108"/>
+      <c r="I11" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A12" s="108"/>
+      <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="10">
+        <v>52</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="11">
         <f>IF(D12="YES",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="104"/>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A13" s="104"/>
-      <c r="B13" s="5">
+      <c r="G12" s="108"/>
+      <c r="I12" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A13" s="108"/>
+      <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="10">
+        <v>69</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="11">
         <f>IF(D13="YES",0.2,0)</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="104"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A14" s="104"/>
-      <c r="B14" s="5">
+        <v>41</v>
+      </c>
+      <c r="G13" s="108"/>
+      <c r="I13" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A14" s="108"/>
+      <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="10">
+        <v>72</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="11">
         <f t="shared" ref="E14:E17" si="2">IF(D14="YES",0.2,0)</f>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="104"/>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A15" s="104"/>
-      <c r="B15" s="5">
+        <v>41</v>
+      </c>
+      <c r="G14" s="108"/>
+      <c r="I14" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A15" s="108"/>
+      <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="10">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="11">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="104"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A16" s="104"/>
-      <c r="B16" s="5">
+        <v>41</v>
+      </c>
+      <c r="G15" s="108"/>
+      <c r="I15" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A16" s="108"/>
+      <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" s="10">
+        <v>74</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="11">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="104"/>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A17" s="104"/>
-      <c r="B17" s="5">
+        <v>41</v>
+      </c>
+      <c r="G16" s="108"/>
+      <c r="I16" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A17" s="108"/>
+      <c r="B17" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="10">
+        <v>89</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="11">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="104"/>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A18" s="104"/>
-      <c r="B18" s="5">
+        <v>41</v>
+      </c>
+      <c r="G17" s="108"/>
+      <c r="I17" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A18" s="108"/>
+      <c r="B18" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="10">
+        <v>75</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="11">
         <f>IF(D18="YES",0.5,0)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="104"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A19" s="104"/>
-      <c r="B19" s="5">
+      <c r="G18" s="108"/>
+      <c r="I18" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A19" s="108"/>
+      <c r="B19" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="10">
+        <v>76</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="11">
         <f t="shared" ref="E19:E21" si="3">IF(D19="YES",0.5,0)</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="104"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A20" s="104"/>
-      <c r="B20" s="5">
+      <c r="G19" s="108"/>
+      <c r="I19" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A20" s="108"/>
+      <c r="B20" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="10">
+        <v>46</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="11">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="104"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A21" s="104"/>
-      <c r="B21" s="5">
+      <c r="G20" s="108"/>
+      <c r="I20" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A21" s="108"/>
+      <c r="B21" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="10">
+        <v>47</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="11">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="104"/>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A22" s="104"/>
-      <c r="B22" s="5">
+      <c r="G21" s="108"/>
+      <c r="I21" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A22" s="108"/>
+      <c r="B22" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="10">
+        <v>48</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="11">
         <f>IF(D22="YES",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="104"/>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A23" s="104"/>
-      <c r="B23" s="5">
+      <c r="G22" s="108"/>
+      <c r="I22" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A23" s="108"/>
+      <c r="B23" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="10">
+        <v>49</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="11">
         <f>IF(D23="YES",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="104"/>
-    </row>
-    <row r="24" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A24" s="104"/>
-      <c r="B24" s="5">
+      <c r="G23" s="108"/>
+      <c r="I23" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A24" s="108"/>
+      <c r="B24" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="10">
+        <v>54</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="11">
         <f>IF(D24="YES",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="104"/>
-    </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A25" s="104"/>
-      <c r="B25" s="5">
+      <c r="G24" s="108"/>
+      <c r="I24" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A25" s="108"/>
+      <c r="B25" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="10">
+        <v>55</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="11">
         <f>IF(D25="YES",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="104"/>
-    </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A26" s="104"/>
-      <c r="B26" s="5">
+      <c r="G25" s="108"/>
+      <c r="I25" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A26" s="108"/>
+      <c r="B26" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="10">
+        <v>70</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="11">
         <f>IF(D26="YES",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="104"/>
-    </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A27" s="104"/>
-      <c r="B27" s="5">
+      <c r="G26" s="108"/>
+      <c r="I26" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A27" s="108"/>
+      <c r="B27" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="10">
+        <v>77</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="11">
         <f>IF(D27="NO",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="104"/>
-    </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" ht="17" customHeight="1">
-      <c r="A28" s="104"/>
-      <c r="B28" s="5">
+      <c r="G27" s="108"/>
+      <c r="I27" s="146" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="4" customFormat="1" ht="17" customHeight="1">
+      <c r="A28" s="108"/>
+      <c r="B28" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="10">
+        <v>86</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="11">
         <f>IF(D28="YES",1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="104"/>
-    </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="5" customHeight="1">
-      <c r="A29" s="104"/>
+      <c r="G28" s="108"/>
+      <c r="I28" s="146" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="1" customFormat="1" ht="5" customHeight="1">
+      <c r="A29" s="108"/>
       <c r="F29"/>
-      <c r="G29" s="104"/>
-    </row>
-    <row r="30" spans="1:7" s="1" customFormat="1">
-      <c r="A30" s="104"/>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-    </row>
-    <row r="31" spans="1:7" s="1" customFormat="1">
+      <c r="G29" s="108"/>
+    </row>
+    <row r="30" spans="1:9" s="1" customFormat="1">
+      <c r="A30" s="108"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="108"/>
+    </row>
+    <row r="31" spans="1:9" s="1" customFormat="1">
       <c r="F31"/>
       <c r="G31"/>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1">
+    <row r="32" spans="1:9" s="1" customFormat="1">
       <c r="C32"/>
       <c r="F32"/>
       <c r="G32"/>
@@ -5050,12 +5859,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="O5" sqref="O5:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5069,7 +5878,7 @@
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.33203125" customWidth="1"/>
     <col min="9" max="9" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="8" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="9" customWidth="1"/>
     <col min="11" max="11" width="3.83203125" customWidth="1"/>
     <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.83203125" customWidth="1"/>
@@ -5079,688 +5888,687 @@
   <sheetData>
     <row r="1" spans="2:16" ht="5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:16" ht="15" customHeight="1" thickBot="1">
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="36"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" spans="2:16" ht="22" customHeight="1">
-      <c r="B3" s="37"/>
-      <c r="C3" s="93" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="97" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="99">
+      <c r="B3" s="38"/>
+      <c r="C3" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="102"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="103">
         <f>E10/4</f>
-        <v>5</v>
-      </c>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99">
+        <v>0</v>
+      </c>
+      <c r="H3" s="103"/>
+      <c r="I3" s="103">
         <f>E14/2</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="103"/>
+      <c r="K3" s="103">
+        <f>E17/4</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="103"/>
+      <c r="M3" s="126">
+        <f>E22/3</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="127"/>
+      <c r="O3" s="122" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="39"/>
+    </row>
+    <row r="4" spans="2:16" ht="22" customHeight="1">
+      <c r="B4" s="38"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="100"/>
+      <c r="G4" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="65"/>
+      <c r="M4" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99">
-        <f>E17/4</f>
-        <v>2</v>
-      </c>
-      <c r="L3" s="99"/>
-      <c r="M3" s="122">
-        <f>E22/3</f>
-        <v>3</v>
-      </c>
-      <c r="N3" s="123"/>
-      <c r="O3" s="118" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" s="38"/>
-    </row>
-    <row r="4" spans="2:16" ht="22" customHeight="1">
-      <c r="B4" s="37"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="F4" s="96"/>
-      <c r="G4" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="61"/>
-      <c r="M4" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="N4" s="103"/>
-      <c r="O4" s="119"/>
-      <c r="P4" s="38"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="39"/>
     </row>
     <row r="5" spans="2:16" ht="20" customHeight="1">
-      <c r="B5" s="37"/>
-      <c r="C5" s="115">
+      <c r="B5" s="38"/>
+      <c r="C5" s="119">
         <f>(G5+K5+M5+G6+I6+K6+M7)/O5</f>
-        <v>1</v>
-      </c>
-      <c r="D5" s="131" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="135" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="128"/>
-      <c r="G5" s="117">
+      <c r="F5" s="132"/>
+      <c r="G5" s="121">
         <f>G3</f>
-        <v>5</v>
-      </c>
-      <c r="H5" s="117"/>
-      <c r="I5" s="130">
-        <v>0</v>
-      </c>
-      <c r="J5" s="130"/>
-      <c r="K5" s="117">
+        <v>0</v>
+      </c>
+      <c r="H5" s="121"/>
+      <c r="I5" s="134">
+        <v>0</v>
+      </c>
+      <c r="J5" s="134"/>
+      <c r="K5" s="121">
         <f>K3</f>
-        <v>2</v>
-      </c>
-      <c r="L5" s="117"/>
-      <c r="M5" s="134">
+        <v>0</v>
+      </c>
+      <c r="L5" s="121"/>
+      <c r="M5" s="138">
         <f>M3</f>
-        <v>3</v>
-      </c>
-      <c r="N5" s="135"/>
-      <c r="O5" s="120">
-        <f>(G5+K5+M5+G6+I6+K6+M7)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="139"/>
+      <c r="O5" s="124">
         <v>23</v>
       </c>
-      <c r="P5" s="38"/>
+      <c r="P5" s="39"/>
     </row>
     <row r="6" spans="2:16" ht="20" customHeight="1">
-      <c r="B6" s="37"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="127" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="119"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="128"/>
-      <c r="G6" s="129">
+      <c r="F6" s="132"/>
+      <c r="G6" s="133">
         <f>G3</f>
-        <v>5</v>
-      </c>
-      <c r="H6" s="129" t="str">
+        <v>0</v>
+      </c>
+      <c r="H6" s="133" t="str">
         <f>$D$9</f>
         <v>Dimension</v>
       </c>
-      <c r="I6" s="117">
+      <c r="I6" s="121">
         <f>I3</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="121"/>
+      <c r="K6" s="121">
+        <f>K3</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="121"/>
+      <c r="M6" s="140">
+        <v>0</v>
+      </c>
+      <c r="N6" s="141"/>
+      <c r="O6" s="124"/>
+      <c r="P6" s="39"/>
+    </row>
+    <row r="7" spans="2:16" ht="20" customHeight="1" thickBot="1">
+      <c r="B7" s="38"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="131" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="132"/>
+      <c r="G7" s="134">
+        <v>0</v>
+      </c>
+      <c r="H7" s="134">
+        <v>0</v>
+      </c>
+      <c r="I7" s="134">
+        <v>0</v>
+      </c>
+      <c r="J7" s="134"/>
+      <c r="K7" s="134">
+        <v>0</v>
+      </c>
+      <c r="L7" s="134"/>
+      <c r="M7" s="138">
+        <f>M3</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="139"/>
+      <c r="O7" s="125"/>
+      <c r="P7" s="39"/>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="38"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="39"/>
+    </row>
+    <row r="9" spans="2:16" ht="20" customHeight="1">
+      <c r="B9" s="38"/>
+      <c r="C9" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="39"/>
+    </row>
+    <row r="10" spans="2:16" ht="20" customHeight="1">
+      <c r="B10" s="38"/>
+      <c r="C10" s="113">
+        <v>20</v>
+      </c>
+      <c r="D10" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="116">
+        <f>G10+G11+G12+I11+I12</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="15">
+        <f>Providers_Survey!E4</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="39"/>
+    </row>
+    <row r="11" spans="2:16" ht="36" customHeight="1">
+      <c r="B11" s="38"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="15">
+        <f>Providers_Survey!E5+Providers_Survey!E6+Providers_Survey!E7+Providers_Survey!E8</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="15">
+        <f>Providers_Survey!E9</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="27"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="39"/>
+    </row>
+    <row r="12" spans="2:16" ht="25" customHeight="1">
+      <c r="B12" s="38"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="49">
+        <f>I11+I12</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="121"/>
+      <c r="I12" s="49">
+        <f>G14+G15+G17+G18+G19</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="27"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="39"/>
+    </row>
+    <row r="13" spans="2:16" ht="10" customHeight="1">
+      <c r="B13" s="38"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="39"/>
+    </row>
+    <row r="14" spans="2:16" ht="20" customHeight="1">
+      <c r="B14" s="38"/>
+      <c r="C14" s="113">
+        <v>6</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="116">
+        <f>G14+G15+I14+I15+K15</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="121" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="15">
+        <f>Providers_Survey!E10</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="121" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="15">
+        <f>Providers_Survey!E11</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="39"/>
+    </row>
+    <row r="15" spans="2:16" ht="34" customHeight="1">
+      <c r="B15" s="38"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="49">
+        <f>I14+I15</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="121"/>
+      <c r="I15" s="49">
+        <f>K15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="15">
+        <f>Providers_Survey!E12</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="39"/>
+    </row>
+    <row r="16" spans="2:16" ht="10" customHeight="1">
+      <c r="B16" s="38"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="39"/>
+    </row>
+    <row r="17" spans="2:16" ht="20" customHeight="1">
+      <c r="B17" s="38"/>
+      <c r="C17" s="113">
+        <v>8</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="116">
+        <f>G17+G18+G19+I19+M19+M20</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" s="15">
+        <f>Providers_Survey!E13+Providers_Survey!E14+Providers_Survey!E15+Providers_Survey!E16+Providers_Survey!E17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="39"/>
+    </row>
+    <row r="18" spans="2:16" ht="20" customHeight="1">
+      <c r="B18" s="38"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="15">
+        <f>Providers_Survey!E18+Providers_Survey!E19</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="39"/>
+    </row>
+    <row r="19" spans="2:16" ht="20" customHeight="1">
+      <c r="B19" s="38"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="114"/>
+      <c r="G19" s="77">
+        <f>I19+M19+M20</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="128" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="111">
+        <f>Providers_Survey!E20+Providers_Survey!E21</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="130" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="121" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="121"/>
+      <c r="M19" s="15">
+        <f>Providers_Survey!E22</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="39"/>
+    </row>
+    <row r="20" spans="2:16" ht="20" customHeight="1">
+      <c r="B20" s="38"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="112"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="121"/>
+      <c r="M20" s="15">
+        <f>Providers_Survey!E23</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="39"/>
+    </row>
+    <row r="21" spans="2:16" ht="10" customHeight="1">
+      <c r="B21" s="38"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="39"/>
+    </row>
+    <row r="22" spans="2:16" ht="20" customHeight="1">
+      <c r="B22" s="38"/>
+      <c r="C22" s="113">
+        <v>9</v>
+      </c>
+      <c r="D22" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="J6" s="117"/>
-      <c r="K6" s="117">
-        <f>K3</f>
-        <v>2</v>
-      </c>
-      <c r="L6" s="117"/>
-      <c r="M6" s="136">
-        <v>0</v>
-      </c>
-      <c r="N6" s="137"/>
-      <c r="O6" s="120"/>
-      <c r="P6" s="38"/>
-    </row>
-    <row r="7" spans="2:16" ht="20" customHeight="1" thickBot="1">
-      <c r="B7" s="37"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="127" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="128"/>
-      <c r="G7" s="130">
-        <v>0</v>
-      </c>
-      <c r="H7" s="130">
-        <v>0</v>
-      </c>
-      <c r="I7" s="130">
-        <v>0</v>
-      </c>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130">
-        <v>0</v>
-      </c>
-      <c r="L7" s="130"/>
-      <c r="M7" s="134">
-        <f>M3</f>
-        <v>3</v>
-      </c>
-      <c r="N7" s="135"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="38"/>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="37"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="38"/>
-    </row>
-    <row r="9" spans="2:16" ht="20" customHeight="1">
-      <c r="B9" s="37"/>
-      <c r="C9" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="38"/>
-    </row>
-    <row r="10" spans="2:16" ht="20" customHeight="1">
-      <c r="B10" s="37"/>
-      <c r="C10" s="109">
+      <c r="E22" s="116">
+        <f>G23+G22+I22+I23+I24+I25</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="111" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="15">
+        <f>Providers_Survey!E24</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="15">
+        <f>Providers_Survey!E25</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="27"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="39"/>
+    </row>
+    <row r="23" spans="2:16" ht="20" customHeight="1">
+      <c r="B23" s="38"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="77">
+        <f>I22+I23+I24+I25</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="112">
-        <f>G10+G11+G12+I11+I12</f>
-        <v>20</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="14">
-        <f>Providers_Survey!E4</f>
-        <v>1</v>
-      </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="38"/>
-    </row>
-    <row r="11" spans="2:16" ht="36" customHeight="1">
-      <c r="B11" s="37"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="117" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="14">
-        <f>Providers_Survey!E5+Providers_Survey!E6+Providers_Survey!E7+Providers_Survey!E8</f>
-        <v>1</v>
-      </c>
-      <c r="H11" s="117" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" s="14">
-        <f>Providers_Survey!E9</f>
-        <v>1</v>
-      </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="38"/>
-    </row>
-    <row r="12" spans="2:16" ht="25" customHeight="1">
-      <c r="B12" s="37"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="48">
-        <f>I11+I12</f>
-        <v>9</v>
-      </c>
-      <c r="H12" s="117"/>
-      <c r="I12" s="48">
-        <f>G14+G15+G17+G18+G19</f>
+      <c r="I23" s="15">
+        <f>Providers_Survey!E26</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="27"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="39"/>
+    </row>
+    <row r="24" spans="2:16" ht="20" customHeight="1">
+      <c r="B24" s="38"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="15">
+        <f>Providers_Survey!E27</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="27"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="39"/>
+    </row>
+    <row r="25" spans="2:16" ht="20" customHeight="1">
+      <c r="B25" s="38"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="15">
+        <f>Providers_Survey!E28</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="27"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="39"/>
+    </row>
+    <row r="26" spans="2:16" ht="16" thickBot="1">
+      <c r="B26" s="38"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="39"/>
+    </row>
+    <row r="27" spans="2:16" ht="24" customHeight="1" thickBot="1">
+      <c r="B27" s="38"/>
+      <c r="C27" s="41">
         <v>8</v>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="38"/>
-    </row>
-    <row r="13" spans="2:16" ht="10" customHeight="1">
-      <c r="B13" s="37"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="38"/>
-    </row>
-    <row r="14" spans="2:16" ht="20" customHeight="1">
-      <c r="B14" s="37"/>
-      <c r="C14" s="109">
-        <v>6</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" s="112">
-        <f>G14+G15+I14+I15+K15</f>
-        <v>6</v>
-      </c>
-      <c r="F14" s="117" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="14">
-        <f>Providers_Survey!E10</f>
-        <v>1</v>
-      </c>
-      <c r="H14" s="117" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="14">
-        <f>Providers_Survey!E11</f>
-        <v>1</v>
-      </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="38"/>
-    </row>
-    <row r="15" spans="2:16" ht="34" customHeight="1">
-      <c r="B15" s="37"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="48">
-        <f>I14+I15</f>
-        <v>2</v>
-      </c>
-      <c r="H15" s="117"/>
-      <c r="I15" s="48">
-        <f>K15</f>
-        <v>1</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K15" s="14">
-        <f>Providers_Survey!E12</f>
-        <v>1</v>
-      </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="38"/>
-    </row>
-    <row r="16" spans="2:16" ht="10" customHeight="1">
-      <c r="B16" s="37"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="38"/>
-    </row>
-    <row r="17" spans="2:16" ht="20" customHeight="1">
-      <c r="B17" s="37"/>
-      <c r="C17" s="109">
-        <v>8</v>
-      </c>
-      <c r="D17" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="112">
-        <f>G17+G18+G19+I19+M19+M20</f>
-        <v>8</v>
-      </c>
-      <c r="F17" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="14">
-        <f>Providers_Survey!E13+Providers_Survey!E14+Providers_Survey!E15+Providers_Survey!E16+Providers_Survey!E17</f>
-        <v>1</v>
-      </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="38"/>
-    </row>
-    <row r="18" spans="2:16" ht="20" customHeight="1">
-      <c r="B18" s="37"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="14">
-        <f>Providers_Survey!E18+Providers_Survey!E19</f>
-        <v>1</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="38"/>
-    </row>
-    <row r="19" spans="2:16" ht="20" customHeight="1">
-      <c r="B19" s="37"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="73">
-        <f>I19+M19+M20</f>
-        <v>3</v>
-      </c>
-      <c r="H19" s="124" t="s">
-        <v>27</v>
-      </c>
-      <c r="I19" s="107">
-        <f>Providers_Survey!E20+Providers_Survey!E21</f>
-        <v>1</v>
-      </c>
-      <c r="J19" s="126" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="117" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="117"/>
-      <c r="M19" s="14">
-        <f>Providers_Survey!E22</f>
-        <v>1</v>
-      </c>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="38"/>
-    </row>
-    <row r="20" spans="2:16" ht="20" customHeight="1">
-      <c r="B20" s="37"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="125"/>
-      <c r="I20" s="108"/>
-      <c r="J20" s="125"/>
-      <c r="K20" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="117"/>
-      <c r="M20" s="14">
-        <f>Providers_Survey!E23</f>
-        <v>1</v>
-      </c>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="38"/>
-    </row>
-    <row r="21" spans="2:16" ht="10" customHeight="1">
-      <c r="B21" s="37"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="38"/>
-    </row>
-    <row r="22" spans="2:16" ht="20" customHeight="1">
-      <c r="B22" s="37"/>
-      <c r="C22" s="109">
-        <v>9</v>
-      </c>
-      <c r="D22" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="112">
-        <f>G23+G22+I22+I23+I24+I25</f>
-        <v>9</v>
-      </c>
-      <c r="F22" s="107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="14">
-        <f>Providers_Survey!E24</f>
-        <v>1</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I22" s="14">
-        <f>Providers_Survey!E25</f>
-        <v>1</v>
-      </c>
-      <c r="J22" s="26"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="38"/>
-    </row>
-    <row r="23" spans="2:16" ht="20" customHeight="1">
-      <c r="B23" s="37"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="73">
-        <f>I22+I23+I24+I25</f>
-        <v>4</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="14">
-        <f>Providers_Survey!E26</f>
-        <v>1</v>
-      </c>
-      <c r="J23" s="26"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="38"/>
-    </row>
-    <row r="24" spans="2:16" ht="20" customHeight="1">
-      <c r="B24" s="37"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="14">
-        <f>Providers_Survey!E27</f>
-        <v>1</v>
-      </c>
-      <c r="J24" s="26"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="38"/>
-    </row>
-    <row r="25" spans="2:16" ht="20" customHeight="1">
-      <c r="B25" s="37"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="14">
-        <f>Providers_Survey!E28</f>
-        <v>1</v>
-      </c>
-      <c r="J25" s="26"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="38"/>
-    </row>
-    <row r="26" spans="2:16" ht="16" thickBot="1">
-      <c r="B26" s="37"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="25"/>
-      <c r="P26" s="38"/>
-    </row>
-    <row r="27" spans="2:16" ht="24" customHeight="1" thickBot="1">
-      <c r="B27" s="37"/>
-      <c r="C27" s="40">
-        <v>8</v>
-      </c>
-      <c r="D27" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="E27" s="105">
+      <c r="D27" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="109">
         <f>G10+G17+G22+I24+I25+M7</f>
-        <v>8</v>
-      </c>
-      <c r="F27" s="106"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="25"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="25"/>
-      <c r="P27" s="38"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="110"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="39"/>
     </row>
     <row r="28" spans="2:16" ht="16" thickBot="1">
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="43"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="44"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="56">
